--- a/metadata_vehicle_fleet.xlsx
+++ b/metadata_vehicle_fleet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/ericyo_ntnu_no/Documents/2020 Indecol/Batteries/VehicleFleetDatabase/vehicle_fleet_git_hub/vehicle_stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/ericyo_ntnu_no/Documents/VehicleFleetDatabase/vehicle_fleet_git_hub/vehicle_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="114_{8783A492-6791-2144-922C-7AD3FA03F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72795B8E-9C14-544A-863E-D07A0FB0449C}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="114_{8783A492-6791-2144-922C-7AD3FA03F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4D99021-1154-A94D-8649-27CFB7B969EE}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="15960" firstSheet="2" activeTab="3" xr2:uid="{EC06436E-79EB-6C40-AACD-F805B686F2F9}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{EC06436E-79EB-6C40-AACD-F805B686F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="17" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1179">
   <si>
     <t>sheet names</t>
   </si>
@@ -3522,9 +3522,6 @@
     <t>Other fuel</t>
   </si>
   <si>
-    <t>includes, hybrids, hydrogen, and non-petrol non-diesel fuels</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -3580,6 +3577,39 @@
   </si>
   <si>
     <t>southern europe</t>
+  </si>
+  <si>
+    <t>Statistics Norway</t>
+  </si>
+  <si>
+    <t>https://www.ssb.no/en/transport-og-reiseliv</t>
+  </si>
+  <si>
+    <t>vehicle registrations by class, some motor energy as well</t>
+  </si>
+  <si>
+    <t>occasionally included with tables</t>
+  </si>
+  <si>
+    <t>hybrid vehicles classed sometimes as other and sometimes as own class</t>
+  </si>
+  <si>
+    <t>sometimes includes, hybrids, hydrogen, and non-petrol non-diesel fuel</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Petrol hybrid, chargeable</t>
+  </si>
+  <si>
+    <t>Diesel hybrid, chargeable</t>
+  </si>
+  <si>
+    <t>Diesel hybrid, non-chargeable</t>
+  </si>
+  <si>
+    <t>Petrol hybrid, non-chargeable</t>
   </si>
 </sst>
 </file>
@@ -4191,6 +4221,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4218,7 +4249,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Data_Sheet1 (2)_1" xfId="9" xr:uid="{A05CF8FC-8E3B-B342-BDAE-37CAC6F37D1B}"/>
@@ -5319,9 +5349,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF85723-464A-064D-83CE-7377013504DF}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -5692,7 +5724,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="56" t="s">
         <v>1009</v>
       </c>
@@ -5707,7 +5739,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" s="56" t="s">
         <v>1080</v>
       </c>
@@ -5720,6 +5752,29 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>1082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>863</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -5744,6 +5799,7 @@
     <hyperlink ref="E16" r:id="rId18" xr:uid="{892D02C7-9CA1-0048-A5FB-6FB2845DDFB2}"/>
     <hyperlink ref="E17" r:id="rId19" xr:uid="{D253691A-06B5-BF43-883C-B4CFA4A116ED}"/>
     <hyperlink ref="E18" r:id="rId20" xr:uid="{A1DBE924-07F8-EE40-997A-E9AD71F0A258}"/>
+    <hyperlink ref="E19" r:id="rId21" xr:uid="{BE54A884-657F-844A-AA58-41A3679173D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5766,12 +5822,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>1083</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5">
@@ -6741,11 +6797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DBC143-CAD8-B649-A9B2-A245A722C481}">
   <dimension ref="A1:U290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B273" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O291" sqref="O291"/>
+      <selection pane="bottomRight" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
@@ -15838,11 +15894,11 @@
         <v>955</v>
       </c>
       <c r="C290" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D290" s="34"/>
-      <c r="E290" s="105"/>
-      <c r="M290" s="105">
+      <c r="E290" s="96"/>
+      <c r="M290" s="96">
         <v>150</v>
       </c>
       <c r="N290" s="11" t="s">
@@ -15852,7 +15908,7 @@
         <v>39</v>
       </c>
       <c r="P290" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -16204,7 +16260,7 @@
         <v>767</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D1" s="80" t="s">
         <v>115</v>
@@ -16222,10 +16278,10 @@
         <v>779</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>1151</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>1152</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>782</v>
@@ -16996,7 +17052,7 @@
         <v>861</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>862</v>
@@ -17025,13 +17081,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C26" s="56" t="s">
         <v>1154</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="D26" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>1156</v>
       </c>
       <c r="F26" s="56" t="s">
         <v>863</v>
@@ -17055,7 +17111,7 @@
         <v>865</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>866</v>
@@ -17081,13 +17137,13 @@
     <row r="28" spans="1:14" s="56" customFormat="1" ht="17">
       <c r="A28" s="5"/>
       <c r="B28" s="56" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>1164</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="D28" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>1166</v>
       </c>
       <c r="F28" s="56" t="s">
         <v>863</v>
@@ -17110,7 +17166,7 @@
         <v>867</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>868</v>
@@ -17141,7 +17197,7 @@
         <v>869</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>870</v>
@@ -17172,7 +17228,7 @@
         <v>871</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>872</v>
@@ -17203,7 +17259,7 @@
         <v>873</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>874</v>
@@ -17234,7 +17290,7 @@
         <v>875</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>876</v>
@@ -17265,7 +17321,7 @@
         <v>877</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>878</v>
@@ -17602,7 +17658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFBCF10-B42A-8D46-BA7B-B4277EA43498}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -17974,7 +18032,7 @@
         <v>1148</v>
       </c>
       <c r="C22" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="E22" t="s">
         <v>863</v>
@@ -17987,46 +18045,87 @@
       <c r="A23" s="56">
         <v>22</v>
       </c>
+      <c r="B23" s="94" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="56">
         <v>23</v>
       </c>
+      <c r="B24" s="94" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="56">
         <v>24</v>
       </c>
+      <c r="B25" s="94" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="56">
         <v>25</v>
       </c>
+      <c r="B26" s="94" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="56">
         <v>26</v>
       </c>
+      <c r="B27" s="94" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="56">
-        <v>27</v>
-      </c>
+      <c r="A28" s="56"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="56">
-        <v>28</v>
-      </c>
+      <c r="A29" s="56"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="56">
-        <v>29</v>
-      </c>
+      <c r="A30" s="56"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="56">
-        <v>30</v>
-      </c>
+      <c r="A31" s="56"/>
+      <c r="E31" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18037,8 +18136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D915AA-E68F-004E-AC5F-6B6D3B0FE68C}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18083,16 +18182,16 @@
       <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A2" s="96">
+      <c r="A2" s="97">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>890</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="88" t="s">
         <v>891</v>
       </c>
@@ -18108,10 +18207,10 @@
       <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A3" s="96"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="88" t="s">
         <v>894</v>
       </c>
@@ -18127,10 +18226,10 @@
       <c r="K3" s="88"/>
     </row>
     <row r="4" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A4" s="96"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="88" t="s">
         <v>897</v>
       </c>
@@ -18146,10 +18245,10 @@
       <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A5" s="96"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="88" t="s">
         <v>900</v>
       </c>
@@ -18165,10 +18264,10 @@
       <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A6" s="96"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="88" t="s">
         <v>903</v>
       </c>
@@ -18182,10 +18281,10 @@
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A7" s="96"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="88" t="s">
         <v>905</v>
       </c>
@@ -18199,10 +18298,10 @@
       <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11" s="66" customFormat="1" ht="12" thickBot="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="89" t="s">
         <v>907</v>
       </c>
@@ -18216,16 +18315,16 @@
       <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" s="65" customFormat="1" ht="12" thickTop="1">
-      <c r="A9" s="98">
+      <c r="A9" s="99">
         <v>2</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="103" t="s">
         <v>909</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="90" t="s">
         <v>910</v>
       </c>
@@ -18243,10 +18342,10 @@
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A10" s="96"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
       <c r="G10" s="68">
@@ -18260,10 +18359,10 @@
       <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:11" s="66" customFormat="1" ht="12" thickBot="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
       <c r="G11" s="69">
@@ -18279,16 +18378,16 @@
       <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" s="64" customFormat="1" ht="12" thickTop="1">
-      <c r="A12" s="99">
+      <c r="A12" s="100">
         <v>3</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>915</v>
       </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="88" t="s">
         <v>916</v>
       </c>
@@ -18306,10 +18405,10 @@
       <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A13" s="96"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="88" t="s">
         <v>919</v>
       </c>
@@ -18327,10 +18426,10 @@
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A14" s="96"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="88"/>
       <c r="F14" s="88"/>
       <c r="G14" s="68">
@@ -18344,10 +18443,10 @@
       <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:11" s="64" customFormat="1" ht="11">
-      <c r="A15" s="96"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="88"/>
       <c r="F15" s="88"/>
       <c r="G15" s="68">
@@ -18361,10 +18460,10 @@
       <c r="K15" s="88"/>
     </row>
     <row r="16" spans="1:11" s="66" customFormat="1" ht="12" thickBot="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
       <c r="G16" s="69">
@@ -18378,16 +18477,16 @@
       <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="12" thickTop="1">
-      <c r="A17" s="98">
+      <c r="A17" s="99">
         <v>4</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="103" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="102"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="90" t="s">
         <v>926</v>
       </c>
@@ -18404,10 +18503,10 @@
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" s="64" customFormat="1" ht="11">
-      <c r="A18" s="96"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="88" t="s">
         <v>929</v>
       </c>
@@ -18424,10 +18523,10 @@
       <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" s="64" customFormat="1" ht="11">
-      <c r="A19" s="96"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="68">
@@ -18440,10 +18539,10 @@
       <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" s="64" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="68">
@@ -18456,10 +18555,10 @@
       <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" s="66" customFormat="1" ht="12" thickBot="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="89"/>
       <c r="F21" s="89"/>
       <c r="G21" s="69">
@@ -18472,16 +18571,16 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:10" s="65" customFormat="1" ht="12" thickTop="1">
-      <c r="A22" s="98">
+      <c r="A22" s="99">
         <v>5</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="103" t="s">
         <v>935</v>
       </c>
-      <c r="D22" s="102"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="90" t="s">
         <v>936</v>
       </c>
@@ -18490,14 +18589,16 @@
       </c>
       <c r="G22" s="70"/>
       <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="I22" s="88" t="s">
+        <v>940</v>
+      </c>
       <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:10" s="64" customFormat="1" ht="11">
-      <c r="A23" s="96"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="88" t="s">
         <v>938</v>
       </c>
@@ -18506,14 +18607,13 @@
       </c>
       <c r="G23" s="68"/>
       <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
       <c r="J23" s="88"/>
     </row>
     <row r="24" spans="1:10" s="66" customFormat="1" ht="12" thickBot="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="89" t="s">
         <v>51</v>
       </c>
@@ -19143,15 +19243,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6518AA-504D-4402-945F-65861D218FD0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="98777117-b212-45e1-a88d-0f4f09175248"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/metadata_vehicle_fleet.xlsx
+++ b/metadata_vehicle_fleet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/ericyo_ntnu_no/Documents/VehicleFleetDatabase/vehicle_fleet_git_hub/vehicle_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="114_{8783A492-6791-2144-922C-7AD3FA03F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20E6746B-DE93-2B4E-9FBF-A9ABB5F128DF}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="114_{8783A492-6791-2144-922C-7AD3FA03F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62A548AE-BA8B-3B4E-AD33-5EF0ACBAFB57}"/>
   <bookViews>
-    <workbookView xWindow="-20260" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{EC06436E-79EB-6C40-AACD-F805B686F2F9}"/>
+    <workbookView xWindow="-1060" yWindow="-21140" windowWidth="19200" windowHeight="19400" firstSheet="5" activeTab="8" xr2:uid="{EC06436E-79EB-6C40-AACD-F805B686F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="17" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="1309">
   <si>
     <t>sheet names</t>
   </si>
@@ -3712,9 +3712,6 @@
   </si>
   <si>
     <t>NBSCHINA</t>
-  </si>
-  <si>
-    <t>source_terminology</t>
   </si>
   <si>
     <t>20plus_pass</t>
@@ -4155,6 +4152,81 @@
   </si>
   <si>
     <t>Highway, total (registered vehicles)</t>
+  </si>
+  <si>
+    <t>http://www.jama-english.jp/publications/The_Motor_Industry_of_Japan_2020.pdf</t>
+  </si>
+  <si>
+    <t>JPPASS</t>
+  </si>
+  <si>
+    <t>Passenger Cars</t>
+  </si>
+  <si>
+    <t>JPTRUCK</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>JPBUS</t>
+  </si>
+  <si>
+    <t>JPSP</t>
+  </si>
+  <si>
+    <t>"Special-purpose vehicles" refers to emergency vehicles, special vehicles equipped with beds, refrigerated trucks, tank trucks, tractors, bulldozers, steamrollers, snowplows, snowmobiles, etc, that are identified as special purpose vehicles by special registration numbers.</t>
+  </si>
+  <si>
+    <t>Special-Purpose Vehicles</t>
+  </si>
+  <si>
+    <t>JPsmall</t>
+  </si>
+  <si>
+    <t>JPstandard</t>
+  </si>
+  <si>
+    <t>JPmini</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>JPlargeBus</t>
+  </si>
+  <si>
+    <t>JPsmallBus</t>
+  </si>
+  <si>
+    <t>Large Bus</t>
+  </si>
+  <si>
+    <t>Small Bus</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Vehicle_registration_plates_of_Japan</t>
+  </si>
+  <si>
+    <t>displacement larger than 2000cc</t>
+  </si>
+  <si>
+    <t>displacement from 660cc to 2000cc</t>
+  </si>
+  <si>
+    <t>displacement under 660cc</t>
+  </si>
+  <si>
+    <t>small to medium bus</t>
+  </si>
+  <si>
+    <t>source_label</t>
   </si>
 </sst>
 </file>
@@ -4661,7 +4733,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4839,6 +4911,28 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="14" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4866,26 +4960,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="14" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6026,7 +6102,7 @@
         <v>1190</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>47</v>
@@ -6148,7 +6224,7 @@
       <c r="A13" s="53">
         <v>12</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="104" t="s">
         <v>1186</v>
       </c>
       <c r="D13" s="53" t="s">
@@ -6162,24 +6238,24 @@
       <c r="B14" s="53" t="s">
         <v>789</v>
       </c>
-      <c r="C14" s="114" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D14" s="114" t="s">
+      <c r="C14" s="105" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D14" s="105" t="s">
         <v>813</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
     </row>
     <row r="15" spans="1:16" ht="16" customHeight="1">
       <c r="A15" s="53">
@@ -6188,24 +6264,24 @@
       <c r="B15" s="53" t="s">
         <v>1190</v>
       </c>
-      <c r="C15" s="115" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D15" s="114" t="s">
+      <c r="C15" s="106" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D15" s="105" t="s">
         <v>813</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
       <c r="A16" s="53">
@@ -6214,24 +6290,24 @@
       <c r="B16" s="53" t="s">
         <v>1191</v>
       </c>
-      <c r="C16" s="115" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D16" s="114" t="s">
+      <c r="C16" s="106" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D16" s="105" t="s">
         <v>813</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
     </row>
     <row r="17" spans="1:16" ht="16" customHeight="1">
       <c r="A17" s="53">
@@ -6240,24 +6316,24 @@
       <c r="B17" s="53" t="s">
         <v>1193</v>
       </c>
-      <c r="C17" s="115" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D17" s="114" t="s">
+      <c r="C17" s="106" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D17" s="105" t="s">
         <v>813</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6269,7 +6345,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6303,28 +6379,28 @@
         <v>999</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1238</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1204</v>
@@ -6555,34 +6631,34 @@
       <c r="H11" s="26" t="s">
         <v>1034</v>
       </c>
-      <c r="I11" s="116" t="s">
+      <c r="I11" s="107" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J11" s="108" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K11" s="107" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L11" s="107" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M11" s="107" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N11" s="107" t="s">
         <v>1269</v>
       </c>
-      <c r="J11" s="117" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K11" s="116" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M11" s="116" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N11" s="116" t="s">
+      <c r="O11" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="O11" s="116" t="s">
-        <v>1271</v>
-      </c>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
     </row>
     <row r="12" spans="1:22" ht="17">
       <c r="A12" s="53" t="s">
@@ -6606,12 +6682,12 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:22" ht="17">
       <c r="A13" s="53" t="s">
@@ -6635,12 +6711,12 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:22" ht="17">
       <c r="A14" s="53" t="s">
@@ -6664,12 +6740,12 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="53" t="s">
@@ -6690,12 +6766,12 @@
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:22" ht="17">
       <c r="A16" s="53" t="s">
@@ -6718,12 +6794,12 @@
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="53" t="s">
@@ -6739,12 +6815,12 @@
       <c r="E17" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="53" t="s">
@@ -6760,12 +6836,15 @@
       <c r="E18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="3" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -6793,12 +6872,12 @@
         <v>1150</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -6820,52 +6899,52 @@
         <v>1178</v>
       </c>
       <c r="H20" s="103" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I20" s="103" t="s">
         <v>1239</v>
       </c>
-      <c r="I20" s="103" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J20" s="117"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="J21" s="117"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="J22" s="117"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="J23" s="117"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="J24" s="117"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6894,6 +6973,7 @@
     <hyperlink ref="E20" r:id="rId22" xr:uid="{EAEA37CC-0093-F649-AB1D-D2F0A33E2D41}"/>
     <hyperlink ref="P20" r:id="rId23" xr:uid="{33A7E7B4-D402-A74B-8BA8-746BD1A7B426}"/>
     <hyperlink ref="G11" r:id="rId24" xr:uid="{66AE1287-AB46-3641-A637-B0A3478CC50A}"/>
+    <hyperlink ref="P18" r:id="rId25" xr:uid="{ED43A08D-4882-0045-80F2-38D9E6BBCE40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6916,12 +6996,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="120" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5">
@@ -10100,7 +10180,7 @@
         <v>409</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>1181</v>
@@ -10141,7 +10221,7 @@
         <v>446</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>473</v>
@@ -10361,7 +10441,7 @@
         <v>178</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>277</v>
@@ -10949,7 +11029,7 @@
         <v>313</v>
       </c>
       <c r="G70" s="96" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H70" s="96" t="s">
         <v>1186</v>
@@ -11381,7 +11461,7 @@
         <v>332</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>331</v>
@@ -11425,7 +11505,7 @@
         <v>329</v>
       </c>
       <c r="G81" s="96" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H81" s="96" t="s">
         <v>1186</v>
@@ -11466,7 +11546,7 @@
         <v>280</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D82" s="11">
         <v>1974</v>
@@ -13583,7 +13663,7 @@
         <v>418</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>454</v>
@@ -16133,7 +16213,7 @@
         <v>501</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H188" s="11" t="s">
         <v>502</v>
@@ -18777,7 +18857,7 @@
         <v>713</v>
       </c>
       <c r="G248" s="96" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H248" s="96" t="s">
         <v>1186</v>
@@ -20385,7 +20465,7 @@
         <v>955</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D290" s="33"/>
       <c r="E290" s="87"/>
@@ -20739,11 +20819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D5EEE-D439-EC4B-9722-8D5F41EC151B}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -21097,8 +21177,8 @@
       <c r="B11" s="53" t="s">
         <v>811</v>
       </c>
-      <c r="C11" s="118" t="s">
-        <v>1278</v>
+      <c r="C11" s="109" t="s">
+        <v>1277</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>812</v>
@@ -21132,8 +21212,8 @@
       <c r="B12" s="53" t="s">
         <v>816</v>
       </c>
-      <c r="C12" s="118" t="s">
-        <v>1279</v>
+      <c r="C12" s="109" t="s">
+        <v>1278</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>817</v>
@@ -21167,7 +21247,7 @@
       <c r="B13" s="53" t="s">
         <v>818</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="109" t="s">
         <v>819</v>
       </c>
       <c r="D13" s="74" t="s">
@@ -21204,8 +21284,8 @@
       <c r="B14" s="53" t="s">
         <v>822</v>
       </c>
-      <c r="C14" s="119" t="s">
-        <v>1282</v>
+      <c r="C14" s="110" t="s">
+        <v>1281</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>823</v>
@@ -21239,8 +21319,8 @@
       <c r="B15" s="53" t="s">
         <v>824</v>
       </c>
-      <c r="C15" s="118" t="s">
-        <v>1281</v>
+      <c r="C15" s="109" t="s">
+        <v>1280</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>825</v>
@@ -21274,8 +21354,8 @@
       <c r="B16" s="53" t="s">
         <v>826</v>
       </c>
-      <c r="C16" s="118" t="s">
-        <v>1280</v>
+      <c r="C16" s="109" t="s">
+        <v>1279</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>827</v>
@@ -21307,10 +21387,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C17" s="111" t="s">
         <v>1283</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>1284</v>
       </c>
       <c r="D17" s="16"/>
       <c r="F17" s="40" t="s">
@@ -21937,20 +22017,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C38" s="53" t="s">
         <v>1245</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>1246</v>
-      </c>
       <c r="D38" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E38" s="53"/>
       <c r="F38" s="53" t="s">
         <v>1210</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
@@ -21963,22 +22043,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="53" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>1241</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>1242</v>
-      </c>
       <c r="D39" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>1210</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
@@ -21991,22 +22071,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="53" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C40" s="53" t="s">
         <v>1243</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>1244</v>
-      </c>
       <c r="D40" s="16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E40" s="103" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F40" s="53" t="s">
         <v>1210</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="53"/>
@@ -22014,39 +22094,78 @@
       <c r="K40" s="53"/>
       <c r="M40" s="53"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="5"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+    <row r="41" spans="1:13" ht="17">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>845</v>
+      </c>
       <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>1284</v>
+      </c>
       <c r="H41" s="53"/>
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
       <c r="M41" s="53"/>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="5"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
+    <row r="42" spans="1:13" ht="17">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>845</v>
+      </c>
       <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G42" s="121" t="s">
+        <v>1284</v>
+      </c>
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
       <c r="M42" s="53"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="5"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+    <row r="43" spans="1:13" ht="17">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>845</v>
+      </c>
       <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="F43" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G43" s="121" t="s">
+        <v>1284</v>
+      </c>
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
@@ -22054,12 +22173,25 @@
       <c r="M43" s="53"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="5"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>1291</v>
+      </c>
       <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G44" s="121" t="s">
+        <v>1284</v>
+      </c>
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
@@ -22221,6 +22353,8 @@
     <hyperlink ref="G38" r:id="rId14" xr:uid="{F92769A2-9046-F743-A488-BEFFDD26B3B6}"/>
     <hyperlink ref="G39" r:id="rId15" xr:uid="{7E47BCF1-307D-2742-BBC2-E19693C2EA03}"/>
     <hyperlink ref="G40" r:id="rId16" xr:uid="{8D779B20-D183-694B-80A7-80C0743412CA}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{6F4A91C6-5360-584D-9F84-3213E808EDFF}"/>
+    <hyperlink ref="G42:G44" r:id="rId18" display="http://www.jama-english.jp/publications/The_Motor_Industry_of_Japan_2020.pdf" xr:uid="{A9FDF0A5-F960-EE4A-9E10-7372AF56BA18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22754,16 +22888,16 @@
       <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A2" s="108">
+      <c r="A2" s="116">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="113" t="s">
         <v>882</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="79" t="s">
         <v>883</v>
       </c>
@@ -22779,10 +22913,10 @@
       <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A3" s="108"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="79" t="s">
         <v>886</v>
       </c>
@@ -22798,10 +22932,10 @@
       <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A4" s="108"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="79" t="s">
         <v>889</v>
       </c>
@@ -22817,10 +22951,10 @@
       <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A5" s="108"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="79" t="s">
         <v>892</v>
       </c>
@@ -22836,10 +22970,10 @@
       <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A6" s="108"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="79" t="s">
         <v>895</v>
       </c>
@@ -22853,10 +22987,10 @@
       <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A7" s="108"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="79" t="s">
         <v>897</v>
       </c>
@@ -22870,10 +23004,10 @@
       <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11" s="60" customFormat="1" ht="12" thickBot="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="80" t="s">
         <v>899</v>
       </c>
@@ -22887,16 +23021,16 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" s="59" customFormat="1" ht="12" thickTop="1">
-      <c r="A9" s="110">
+      <c r="A9" s="118">
         <v>2</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="115" t="s">
         <v>901</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="81" t="s">
         <v>902</v>
       </c>
@@ -22914,10 +23048,10 @@
       <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A10" s="108"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="62">
@@ -22931,10 +23065,10 @@
       <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" s="60" customFormat="1" ht="12" thickBot="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
       <c r="G11" s="63">
@@ -22950,16 +23084,16 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="58" customFormat="1" ht="12" thickTop="1">
-      <c r="A12" s="111">
+      <c r="A12" s="119">
         <v>3</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="112" t="s">
         <v>907</v>
       </c>
-      <c r="D12" s="104"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="79" t="s">
         <v>908</v>
       </c>
@@ -22977,10 +23111,10 @@
       <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A13" s="108"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="79" t="s">
         <v>911</v>
       </c>
@@ -22998,10 +23132,10 @@
       <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A14" s="108"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="62">
@@ -23015,10 +23149,10 @@
       <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" s="58" customFormat="1" ht="11">
-      <c r="A15" s="108"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
       <c r="G15" s="62">
@@ -23032,10 +23166,10 @@
       <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11" s="60" customFormat="1" ht="12" thickBot="1">
-      <c r="A16" s="109"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
       <c r="G16" s="63">
@@ -23049,16 +23183,16 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:10" s="59" customFormat="1" ht="12" thickTop="1">
-      <c r="A17" s="110">
+      <c r="A17" s="118">
         <v>4</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="115" t="s">
         <v>917</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="81" t="s">
         <v>918</v>
       </c>
@@ -23075,10 +23209,10 @@
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1" ht="11">
-      <c r="A18" s="108"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="79" t="s">
         <v>921</v>
       </c>
@@ -23095,10 +23229,10 @@
       <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1" ht="11">
-      <c r="A19" s="108"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="62">
@@ -23111,10 +23245,10 @@
       <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" s="58" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="79"/>
       <c r="F20" s="79"/>
       <c r="G20" s="62">
@@ -23127,10 +23261,10 @@
       <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" s="60" customFormat="1" ht="12" thickBot="1">
-      <c r="A21" s="109"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="63">
@@ -23143,16 +23277,16 @@
       <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" s="59" customFormat="1" ht="12" thickTop="1">
-      <c r="A22" s="110">
+      <c r="A22" s="118">
         <v>5</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="115" t="s">
         <v>927</v>
       </c>
-      <c r="D22" s="107"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="81" t="s">
         <v>928</v>
       </c>
@@ -23167,10 +23301,10 @@
       <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" s="58" customFormat="1" ht="11">
-      <c r="A23" s="108"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="79" t="s">
         <v>930</v>
       </c>
@@ -23182,10 +23316,10 @@
       <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="60" customFormat="1" ht="12" thickBot="1">
-      <c r="A24" s="109"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="80" t="s">
         <v>50</v>
       </c>
@@ -23411,8 +23545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43A615C-1DAD-0041-99F3-06EDEE1B4FC7}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -23429,7 +23563,7 @@
         <v>764</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1211</v>
+        <v>1308</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>114</v>
@@ -23565,13 +23699,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D6" s="100" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="40" t="s">
@@ -23601,13 +23735,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D7" s="100" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="40" t="s">
@@ -23641,13 +23775,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="40" t="s">
@@ -23681,13 +23815,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="40" t="s">
@@ -23721,13 +23855,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>1175</v>
@@ -23760,13 +23894,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D11" s="100" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>1175</v>
@@ -23799,13 +23933,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>1175</v>
@@ -23838,13 +23972,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>1175</v>
@@ -23877,37 +24011,162 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
+      <c r="D14" s="100" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="40" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17">
+      <c r="A15" s="53">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17">
+      <c r="A16" s="53">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="53">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G18" s="121" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="E22" s="101"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="1:8">
       <c r="E23" s="101"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="1:8">
       <c r="E24" s="101"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="1:8">
       <c r="E25" s="101"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:8">
       <c r="E27" s="53"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:8">
       <c r="E28" s="53"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:8">
       <c r="E29" s="53"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="1:8">
       <c r="E30" s="53"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="1:8">
       <c r="E31" s="53"/>
     </row>
     <row r="33" spans="5:5">
@@ -23969,27 +24228,18 @@
     <hyperlink ref="G13" r:id="rId40" xr:uid="{CA506A2E-E357-2244-AF07-4F4B62F61724}"/>
     <hyperlink ref="J13" r:id="rId41" xr:uid="{7845B310-A879-9844-A08F-D65A7E497F21}"/>
     <hyperlink ref="H13" r:id="rId42" xr:uid="{365CE93B-219E-1148-847C-D83C875B2902}"/>
+    <hyperlink ref="G14" r:id="rId43" xr:uid="{688A9504-9EF5-9C46-A503-3F8F78497511}"/>
+    <hyperlink ref="H14" r:id="rId44" xr:uid="{504AE319-F121-0446-A448-9D1A158275F2}"/>
+    <hyperlink ref="H15" r:id="rId45" xr:uid="{B8C9ACB8-F19B-A543-8F65-933E1B3C7282}"/>
+    <hyperlink ref="H16:H19" r:id="rId46" display="https://en.wikipedia.org/wiki/Vehicle_registration_plates_of_Japan" xr:uid="{E357E9B1-C815-F845-B700-602FCEA2FAD7}"/>
+    <hyperlink ref="G15" r:id="rId47" xr:uid="{13AFCCDC-B77F-8243-8CC0-A7130D6AE2C6}"/>
+    <hyperlink ref="G16:G19" r:id="rId48" display="http://www.jama-english.jp/publications/The_Motor_Industry_of_Japan_2020.pdf" xr:uid="{12FF94FB-54BF-1147-A00B-C894037024AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F6457B5B354EF44D8D7C9179AACD240C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="771909c4432d9ddca1026bbbc304868d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98777117-b212-45e1-a88d-0f4f09175248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dddfcfb35c8dc6f404c28616b14fb385" ns2:_="">
     <xsd:import namespace="98777117-b212-45e1-a88d-0f4f09175248"/>
@@ -24147,31 +24397,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB69DB4-ECBF-4FB1-B594-CDB23036A026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6518AA-504D-4402-945F-65861D218FD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="98777117-b212-45e1-a88d-0f4f09175248"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26F47FB-9222-4755-9E2C-A702DFF938D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24187,4 +24428,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB69DB4-ECBF-4FB1-B594-CDB23036A026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6518AA-504D-4402-945F-65861D218FD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="98777117-b212-45e1-a88d-0f4f09175248"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>